--- a/entrada.xlsx
+++ b/entrada.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cadud\Repos\StressAnalysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cadud\Repos\StressAnalysisFEA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DB0886-3772-427A-8B53-5277B477D0CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6A8561-3C08-4BE8-83CD-EF498AF50644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10230" yWindow="2925" windowWidth="28800" windowHeight="11835" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nos" sheetId="1" r:id="rId1"/>
@@ -507,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,32 +540,52 @@
       <c r="C2" s="2"/>
       <c r="D2" s="9">
         <f>COUNT(A2:A1048576)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B3" s="2">
         <v>0</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.4</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="B4" s="2">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="B5" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>1</v>
+      </c>
+      <c r="B6" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="B7" s="10">
+        <v>0.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -574,10 +594,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,7 +639,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="7">
         <f>COUNT(A2:A1048576)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -641,15 +661,99 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4" s="3">
         <v>210000000000</v>
       </c>
       <c r="D4" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3">
+        <v>210000000000</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>210000000000</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3">
+        <v>210000000000</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3">
+        <v>210000000000</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3">
+        <v>210000000000</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3">
+        <v>210000000000</v>
+      </c>
+      <c r="D10" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
@@ -663,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,13 +793,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="9">
@@ -705,13 +809,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>-100</v>
+        <v>6000</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -866,7 +970,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -896,15 +1000,15 @@
       <c r="C2" s="2"/>
       <c r="D2" s="9">
         <f>COUNT(A2:A1048576)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
         <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -914,12 +1018,18 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>2</v>
+      </c>
+      <c r="B5" s="10">
+        <v>2</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
